--- a/biology/Zoologie/Hydrobius_convexus/Hydrobius_convexus.xlsx
+++ b/biology/Zoologie/Hydrobius_convexus/Hydrobius_convexus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limnohydrobius convexus
 Hydrobius convexus est une espèce actuelle d'insectes coléoptères de la famille des Hydrophilidae.
@@ -513,17 +525,159 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Hydrobius convexus est décrite par l'entomologiste français Gaspard Auguste Brullé en 1835[1],[2].
-Ajout d'un fossile en 1937
-En 1937 Nicolas Théobald ajoute un fossile de Kleinkembs de la collection Mieg conservé au muséum de Bâle[3],[2].
-Fossiles
-Selon Paleobiology Database en 2023, une seule collection de fossile est référencée, du Rupélien de l'Oligocène de France à Kleinkembs[3] ,[2].
-Étymologie
-L'épithète spécifique latine convexus signifie « convexe ».
-Reclassement alternatif
-L'espèce est valide pour Paleobiology Database en 2023, mais GBIF et The Taxonomicon ont reclassé cette espèce dans Limnohydrobius convexus (Brullé, 1835) avec l'avantage de faire apparaître six synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hydrobius convexus est décrite par l'entomologiste français Gaspard Auguste Brullé en 1835,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ajout d'un fossile en 1937</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 Nicolas Théobald ajoute un fossile de Kleinkembs de la collection Mieg conservé au muséum de Bâle,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, une seule collection de fossile est référencée, du Rupélien de l'Oligocène de France à Kleinkembs ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine convexus signifie « convexe ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrobius_convexus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reclassement alternatif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce est valide pour Paleobiology Database en 2023, mais GBIF et The Taxonomicon ont reclassé cette espèce dans Limnohydrobius convexus (Brullé, 1835) avec l'avantage de faire apparaître six synonymes :
 Copelatus convexus (Foerster, 1891) Foerster, 1891
 Escheria convexa (Förster, 1891)
 Hydrobius convexus Brullé, 1835
@@ -533,37 +687,43 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hydrobius_convexus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hydrobius_convexus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 1] : 
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
 « Espèce décrite par Förster des marnes en plaquettes de Brunnstatt. L'auteur l'attribue au g. Escheria Heer. Ce g. fossile a été établi par O. Heer pour désigner des Hydrophilidae d'Oeningen à position systématique douteuse.
 En réalité les formes citées par Förster se distingeuent déjà de Escheria ovalis Heer en ce sens qu'elles ont une taille double, ce qui n'entraine pas, il est vrai, la nullité de la détermination. Mais la conformation de l'abdomen n'est pas la même. Dans l'ornementation des élytres aussi, il y a une différence : dans Escheria ovalis, Heer cite huit stries, dans Hydrobius convexus, dix sont visibles, surtout dans la partie inférieure. C'est là un caractère du genre Hydrobius dans lequel il convient, à notre avis, de ranger cette espèce. La forme du corselet a la même conformation dans Hydrobius et dans l'insecte de Brunnstatt.
-Un échantillon et sa contre empreinte de Kleinkembs (R91+74) de la collection Mieg du Muséum de Bâle. »[3].
+Un échantillon et sa contre empreinte de Kleinkembs (R91+74) de la collection Mieg du Muséum de Bâle. ».
 </t>
         </is>
       </c>
